--- a/biology/Médecine/Étienne-Jean_Georget/Étienne-Jean_Georget.xlsx
+++ b/biology/Médecine/Étienne-Jean_Georget/Étienne-Jean_Georget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne-Jean_Georget</t>
+          <t>Étienne-Jean_Georget</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne-Jean Georget, né en 1795 à Vernou-sur-Brenne et mort en 1828, est un psychiatre français. Il a été l'élève de Philippe Pinel et de Jean-Étienne Esquirol.
 Il a d'abord fait ses études médicales à Tours puis à Paris où il a ensuite exercé à l'Hôpital de la Salpêtrière. Il est connu pour ses écrits et ses apports en psychopathologie et aussi pour avoir demandé à Théodore Géricault de faire des toiles sur le thème de la folie. Il a amélioré et complété la nosographie de Pinel et a bien précisé et délimité le champ de la psychose de celui des affections découlant de maladies organiques.
